--- a/templates/F-825-276L CMD-D.L00.00.C ALIF-X Dimension Measure Rev 15_final.xlsx
+++ b/templates/F-825-276L CMD-D.L00.00.C ALIF-X Dimension Measure Rev 15_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AI Records\Empty Templates\Fake 825\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan Nguyen\Desktop\Compare 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447835B6-FC15-4F2C-B35D-A4890E1A39B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FEB64-2BFC-4025-88F9-8804D84DFE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,7 +606,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,14 +641,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,37 +806,46 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1345,7 +1348,7 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1366,1736 +1369,1736 @@
       <c r="A1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="70" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="73" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="73" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="73" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="73" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="73" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="73" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="84"/>
+      <c r="C14" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="73" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="73" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
     </row>
     <row r="17" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="73" t="s">
+      <c r="B17" s="84"/>
+      <c r="C17" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="73" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="73" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="73" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="73" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="73" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="73" t="s">
+      <c r="B23" s="84"/>
+      <c r="C23" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="82"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="78"/>
     </row>
     <row r="26" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>1</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="25">
+      <c r="A28" s="23">
         <v>2</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>3</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="25">
+      <c r="A30" s="23">
         <v>4</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="25">
+      <c r="A31" s="23">
         <v>5</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="25">
+      <c r="A32" s="23">
         <v>6</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="25">
+      <c r="A33" s="23">
         <v>7</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="25">
+      <c r="A34" s="23">
         <v>8</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="25">
+      <c r="A35" s="23">
         <v>9</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="25">
+      <c r="A36" s="23">
         <v>10</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="25">
+      <c r="A37" s="23">
         <v>11</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="25">
+      <c r="A38" s="23">
         <v>12</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="25">
+      <c r="A39" s="23">
         <v>13</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="25">
+      <c r="A40" s="23">
         <v>14</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="25">
+      <c r="A41" s="23">
         <v>15</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="25">
+      <c r="A42" s="23">
         <v>16</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="25">
+      <c r="A43" s="23">
         <v>17</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="25">
+      <c r="A44" s="23">
         <v>18</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="25">
+      <c r="A45" s="23">
         <v>19</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="25">
+      <c r="A46" s="23">
         <v>20</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
     </row>
     <row r="47" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="25">
+      <c r="A47" s="23">
         <v>21</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
     </row>
     <row r="48" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
     </row>
     <row r="49" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="78" t="s">
+      <c r="A49" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="26">
+      <c r="B49" s="75"/>
+      <c r="C49" s="24">
         <v>0.5</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D49" s="24">
         <v>0.5</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="24">
         <v>0.5</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="24">
         <v>0.15</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="24">
         <v>0.15</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="24">
         <v>0.1</v>
       </c>
-      <c r="I49" s="20"/>
+      <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="27" t="str">
+      <c r="A50" s="25" t="str">
         <f>'Data Entry'!A26</f>
         <v>Line #</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="29" t="str">
+      <c r="C50" s="27" t="str">
         <f t="shared" ref="C50:H50" si="0">C26</f>
         <v>DimA</v>
       </c>
-      <c r="D50" s="29" t="str">
+      <c r="D50" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DimB</v>
       </c>
-      <c r="E50" s="29" t="str">
+      <c r="E50" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DimC</v>
       </c>
-      <c r="F50" s="29" t="str">
+      <c r="F50" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Right Cam Minor</v>
       </c>
-      <c r="G50" s="29" t="str">
+      <c r="G50" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Left Cam Minor</v>
       </c>
-      <c r="H50" s="29" t="str">
+      <c r="H50" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Ø4.70 Thread Pin</v>
       </c>
-      <c r="I50" s="20"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="30">
+      <c r="A51" s="28">
         <f>'Data Entry'!A27</f>
         <v>1</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="28">
         <f>B27</f>
         <v>0</v>
       </c>
-      <c r="C51" s="31" t="e">
+      <c r="C51" s="29" t="e">
         <f>ROUND(-VLOOKUP($B51,'Conv Tables'!$B$6:$G$32,2,FALSE)+C27,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D51" s="31" t="e">
+      <c r="D51" s="29" t="e">
         <f>ROUND(-VLOOKUP($B51,'Conv Tables'!$B$6:$G$32,3,FALSE)+D27,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E51" s="31" t="e">
+      <c r="E51" s="29" t="e">
         <f>ROUND(-VLOOKUP($B51,'Conv Tables'!$B$6:$G$32,4,FALSE)+E27,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F51" s="31" t="e">
+      <c r="F51" s="29" t="e">
         <f>ROUND(-VLOOKUP($B51,'Conv Tables'!B7:H27,5,FALSE)+F27,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="31" t="e">
+      <c r="G51" s="29" t="e">
         <f>ROUND(-VLOOKUP($B51,'Conv Tables'!B7:H32,6,FALSE)+G27,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H51" s="31" t="e">
+      <c r="H51" s="29" t="e">
         <f>ROUND(-VLOOKUP($B51,'Conv Tables'!B7:H32,7,FALSE)+H27,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I51" s="20"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="30">
+      <c r="A52" s="28">
         <f>'Data Entry'!A28</f>
         <v>2</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="28">
         <f t="shared" ref="B52:B71" si="1">B28</f>
         <v>0</v>
       </c>
-      <c r="C52" s="31" t="e">
+      <c r="C52" s="29" t="e">
         <f>ROUND(-VLOOKUP($B52,'Conv Tables'!$B$6:$G$32,2,FALSE)+C28,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D52" s="31" t="e">
+      <c r="D52" s="29" t="e">
         <f>ROUND(-VLOOKUP($B52,'Conv Tables'!$B$6:$G$32,3,FALSE)+D28,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E52" s="31" t="e">
+      <c r="E52" s="29" t="e">
         <f>ROUND(-VLOOKUP($B52,'Conv Tables'!$B$6:$G$32,4,FALSE)+E28,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F52" s="31" t="e">
+      <c r="F52" s="29" t="e">
         <f>ROUND(-VLOOKUP($B52,'Conv Tables'!B8:H28,5,FALSE)+F28,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G52" s="31" t="e">
+      <c r="G52" s="29" t="e">
         <f>ROUND(-VLOOKUP($B52,'Conv Tables'!B8:H33,6,FALSE)+G28,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H52" s="31" t="e">
+      <c r="H52" s="29" t="e">
         <f>ROUND(-VLOOKUP($B52,'Conv Tables'!B8:H33,7,FALSE)+H28,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I52" s="20"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="30">
+      <c r="A53" s="28">
         <f>'Data Entry'!A29</f>
         <v>3</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C53" s="31" t="e">
+      <c r="C53" s="29" t="e">
         <f>ROUND(-VLOOKUP($B53,'Conv Tables'!$B$6:$G$32,2,FALSE)+C29,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D53" s="31" t="e">
+      <c r="D53" s="29" t="e">
         <f>ROUND(-VLOOKUP($B53,'Conv Tables'!$B$6:$G$32,3,FALSE)+D29,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E53" s="31" t="e">
+      <c r="E53" s="29" t="e">
         <f>ROUND(-VLOOKUP($B53,'Conv Tables'!$B$6:$G$32,4,FALSE)+E29,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F53" s="31" t="e">
+      <c r="F53" s="29" t="e">
         <f>ROUND(-VLOOKUP($B53,'Conv Tables'!B9:H29,5,FALSE)+F29,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G53" s="31" t="e">
+      <c r="G53" s="29" t="e">
         <f>ROUND(-VLOOKUP($B53,'Conv Tables'!B9:H34,6,FALSE)+G29,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H53" s="31" t="e">
+      <c r="H53" s="29" t="e">
         <f>ROUND(-VLOOKUP($B53,'Conv Tables'!B9:H34,7,FALSE)+H29,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I53" s="20"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="30">
+      <c r="A54" s="28">
         <f>'Data Entry'!A30</f>
         <v>4</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C54" s="31" t="e">
+      <c r="C54" s="29" t="e">
         <f>ROUND(-VLOOKUP($B54,'Conv Tables'!$B$6:$G$32,2,FALSE)+C30,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D54" s="31" t="e">
+      <c r="D54" s="29" t="e">
         <f>ROUND(-VLOOKUP($B54,'Conv Tables'!$B$6:$G$32,3,FALSE)+D30,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E54" s="31" t="e">
+      <c r="E54" s="29" t="e">
         <f>ROUND(-VLOOKUP($B54,'Conv Tables'!$B$6:$G$32,4,FALSE)+E30,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F54" s="31" t="e">
+      <c r="F54" s="29" t="e">
         <f>ROUND(-VLOOKUP($B54,'Conv Tables'!B10:H30,5,FALSE)+F30,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G54" s="31" t="e">
+      <c r="G54" s="29" t="e">
         <f>ROUND(-VLOOKUP($B54,'Conv Tables'!B10:H35,6,FALSE)+G30,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H54" s="31" t="e">
+      <c r="H54" s="29" t="e">
         <f>ROUND(-VLOOKUP($B54,'Conv Tables'!B10:H35,7,FALSE)+H30,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I54" s="20"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="30">
+      <c r="A55" s="28">
         <f>'Data Entry'!A31</f>
         <v>5</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C55" s="31" t="e">
+      <c r="C55" s="29" t="e">
         <f>ROUND(-VLOOKUP($B55,'Conv Tables'!$B$6:$G$32,2,FALSE)+C31,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D55" s="31" t="e">
+      <c r="D55" s="29" t="e">
         <f>ROUND(-VLOOKUP($B55,'Conv Tables'!$B$6:$G$32,3,FALSE)+D31,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E55" s="31" t="e">
+      <c r="E55" s="29" t="e">
         <f>ROUND(-VLOOKUP($B55,'Conv Tables'!$B$6:$G$32,4,FALSE)+E31,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F55" s="31" t="e">
+      <c r="F55" s="29" t="e">
         <f>ROUND(-VLOOKUP($B55,'Conv Tables'!B11:H31,5,FALSE)+F31,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G55" s="31" t="e">
+      <c r="G55" s="29" t="e">
         <f>ROUND(-VLOOKUP($B55,'Conv Tables'!B11:H36,6,FALSE)+G31,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H55" s="31" t="e">
+      <c r="H55" s="29" t="e">
         <f>ROUND(-VLOOKUP($B55,'Conv Tables'!B11:H36,7,FALSE)+H31,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I55" s="20"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="30">
+      <c r="A56" s="28">
         <f>'Data Entry'!A32</f>
         <v>6</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C56" s="31" t="e">
+      <c r="C56" s="29" t="e">
         <f>ROUND(-VLOOKUP($B56,'Conv Tables'!$B$6:$G$32,2,FALSE)+C32,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D56" s="31" t="e">
+      <c r="D56" s="29" t="e">
         <f>ROUND(-VLOOKUP($B56,'Conv Tables'!$B$6:$G$32,3,FALSE)+D32,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E56" s="31" t="e">
+      <c r="E56" s="29" t="e">
         <f>ROUND(-VLOOKUP($B56,'Conv Tables'!$B$6:$G$32,4,FALSE)+E32,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F56" s="31" t="e">
+      <c r="F56" s="29" t="e">
         <f>ROUND(-VLOOKUP($B56,'Conv Tables'!B12:H32,5,FALSE)+F32,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G56" s="31" t="e">
+      <c r="G56" s="29" t="e">
         <f>ROUND(-VLOOKUP($B56,'Conv Tables'!B12:H37,6,FALSE)+G32,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H56" s="31" t="e">
+      <c r="H56" s="29" t="e">
         <f>ROUND(-VLOOKUP($B56,'Conv Tables'!B12:H37,7,FALSE)+H32,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I56" s="20"/>
+      <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="30">
+      <c r="A57" s="28">
         <f>'Data Entry'!A33</f>
         <v>7</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C57" s="31" t="e">
+      <c r="C57" s="29" t="e">
         <f>ROUND(-VLOOKUP($B57,'Conv Tables'!$B$6:$G$32,2,FALSE)+C33,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D57" s="31" t="e">
+      <c r="D57" s="29" t="e">
         <f>ROUND(-VLOOKUP($B57,'Conv Tables'!$B$6:$G$32,3,FALSE)+D33,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E57" s="31" t="e">
+      <c r="E57" s="29" t="e">
         <f>ROUND(-VLOOKUP($B57,'Conv Tables'!$B$6:$G$32,4,FALSE)+E33,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F57" s="31" t="e">
+      <c r="F57" s="29" t="e">
         <f>ROUND(-VLOOKUP($B57,'Conv Tables'!B13:H33,5,FALSE)+F33,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G57" s="31" t="e">
+      <c r="G57" s="29" t="e">
         <f>ROUND(-VLOOKUP($B57,'Conv Tables'!B13:H38,6,FALSE)+G33,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H57" s="31" t="e">
+      <c r="H57" s="29" t="e">
         <f>ROUND(-VLOOKUP($B57,'Conv Tables'!B13:H38,7,FALSE)+H33,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I57" s="20"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="30">
+      <c r="A58" s="28">
         <f>'Data Entry'!A34</f>
         <v>8</v>
       </c>
-      <c r="B58" s="30">
+      <c r="B58" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C58" s="31" t="e">
+      <c r="C58" s="29" t="e">
         <f>ROUND(-VLOOKUP($B58,'Conv Tables'!$B$6:$G$32,2,FALSE)+C34,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D58" s="31" t="e">
+      <c r="D58" s="29" t="e">
         <f>ROUND(-VLOOKUP($B58,'Conv Tables'!$B$6:$G$32,3,FALSE)+D34,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E58" s="31" t="e">
+      <c r="E58" s="29" t="e">
         <f>ROUND(-VLOOKUP($B58,'Conv Tables'!$B$6:$G$32,4,FALSE)+E34,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F58" s="31" t="e">
+      <c r="F58" s="29" t="e">
         <f>ROUND(-VLOOKUP($B58,'Conv Tables'!B14:H34,5,FALSE)+F34,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G58" s="31" t="e">
+      <c r="G58" s="29" t="e">
         <f>ROUND(-VLOOKUP($B58,'Conv Tables'!B14:H39,6,FALSE)+G34,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H58" s="31" t="e">
+      <c r="H58" s="29" t="e">
         <f>ROUND(-VLOOKUP($B58,'Conv Tables'!B14:H39,7,FALSE)+H34,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I58" s="20"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="30">
+      <c r="A59" s="28">
         <f>'Data Entry'!A35</f>
         <v>9</v>
       </c>
-      <c r="B59" s="30">
+      <c r="B59" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C59" s="31" t="e">
+      <c r="C59" s="29" t="e">
         <f>ROUND(-VLOOKUP($B59,'Conv Tables'!$B$6:$G$32,2,FALSE)+C35,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D59" s="31" t="e">
+      <c r="D59" s="29" t="e">
         <f>ROUND(-VLOOKUP($B59,'Conv Tables'!$B$6:$G$32,3,FALSE)+D35,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E59" s="31" t="e">
+      <c r="E59" s="29" t="e">
         <f>ROUND(-VLOOKUP($B59,'Conv Tables'!$B$6:$G$32,4,FALSE)+E35,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F59" s="31" t="e">
+      <c r="F59" s="29" t="e">
         <f>ROUND(-VLOOKUP($B59,'Conv Tables'!B15:H35,5,FALSE)+F35,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G59" s="31" t="e">
+      <c r="G59" s="29" t="e">
         <f>ROUND(-VLOOKUP($B59,'Conv Tables'!B15:H40,6,FALSE)+G35,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H59" s="31" t="e">
+      <c r="H59" s="29" t="e">
         <f>ROUND(-VLOOKUP($B59,'Conv Tables'!B15:H40,7,FALSE)+H35,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I59" s="20"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="30">
+      <c r="A60" s="28">
         <f>'Data Entry'!A36</f>
         <v>10</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C60" s="31" t="e">
+      <c r="C60" s="29" t="e">
         <f>ROUND(-VLOOKUP($B60,'Conv Tables'!$B$6:$G$32,2,FALSE)+C36,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D60" s="31" t="e">
+      <c r="D60" s="29" t="e">
         <f>ROUND(-VLOOKUP($B60,'Conv Tables'!$B$6:$G$32,3,FALSE)+D36,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E60" s="31" t="e">
+      <c r="E60" s="29" t="e">
         <f>ROUND(-VLOOKUP($B60,'Conv Tables'!$B$6:$G$32,4,FALSE)+E36,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F60" s="31" t="e">
+      <c r="F60" s="29" t="e">
         <f>ROUND(-VLOOKUP($B60,'Conv Tables'!B16:H36,5,FALSE)+F36,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G60" s="31" t="e">
+      <c r="G60" s="29" t="e">
         <f>ROUND(-VLOOKUP($B60,'Conv Tables'!B16:H41,6,FALSE)+G36,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H60" s="31" t="e">
+      <c r="H60" s="29" t="e">
         <f>ROUND(-VLOOKUP($B60,'Conv Tables'!B16:H41,7,FALSE)+H36,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I60" s="20"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="30">
+      <c r="A61" s="28">
         <f>'Data Entry'!A37</f>
         <v>11</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C61" s="31" t="e">
+      <c r="C61" s="29" t="e">
         <f>ROUND(-VLOOKUP($B61,'Conv Tables'!$B$6:$G$32,2,FALSE)+C37,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D61" s="31" t="e">
+      <c r="D61" s="29" t="e">
         <f>ROUND(-VLOOKUP($B61,'Conv Tables'!$B$6:$G$32,3,FALSE)+D37,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E61" s="31" t="e">
+      <c r="E61" s="29" t="e">
         <f>ROUND(-VLOOKUP($B61,'Conv Tables'!$B$6:$G$32,4,FALSE)+E37,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F61" s="31" t="e">
+      <c r="F61" s="29" t="e">
         <f>ROUND(-VLOOKUP($B61,'Conv Tables'!B17:H37,5,FALSE)+F37,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G61" s="31" t="e">
+      <c r="G61" s="29" t="e">
         <f>ROUND(-VLOOKUP($B61,'Conv Tables'!B17:H42,6,FALSE)+G37,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H61" s="31" t="e">
+      <c r="H61" s="29" t="e">
         <f>ROUND(-VLOOKUP($B61,'Conv Tables'!B17:H42,7,FALSE)+H37,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I61" s="20"/>
+      <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="30">
+      <c r="A62" s="28">
         <f>'Data Entry'!A38</f>
         <v>12</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C62" s="31" t="e">
+      <c r="C62" s="29" t="e">
         <f>ROUND(-VLOOKUP($B62,'Conv Tables'!$B$6:$G$32,2,FALSE)+C38,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D62" s="31" t="e">
+      <c r="D62" s="29" t="e">
         <f>ROUND(-VLOOKUP($B62,'Conv Tables'!$B$6:$G$32,3,FALSE)+D38,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E62" s="31" t="e">
+      <c r="E62" s="29" t="e">
         <f>ROUND(-VLOOKUP($B62,'Conv Tables'!$B$6:$G$32,4,FALSE)+E38,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F62" s="31" t="e">
+      <c r="F62" s="29" t="e">
         <f>ROUND(-VLOOKUP($B62,'Conv Tables'!B18:H38,5,FALSE)+F38,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G62" s="31" t="e">
+      <c r="G62" s="29" t="e">
         <f>ROUND(-VLOOKUP($B62,'Conv Tables'!B18:H43,6,FALSE)+G38,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H62" s="31" t="e">
+      <c r="H62" s="29" t="e">
         <f>ROUND(-VLOOKUP($B62,'Conv Tables'!B18:H43,7,FALSE)+H38,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I62" s="20"/>
+      <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="30">
+      <c r="A63" s="28">
         <f>'Data Entry'!A39</f>
         <v>13</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C63" s="31" t="e">
+      <c r="C63" s="29" t="e">
         <f>ROUND(-VLOOKUP($B63,'Conv Tables'!$B$6:$G$32,2,FALSE)+C39,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D63" s="31" t="e">
+      <c r="D63" s="29" t="e">
         <f>ROUND(-VLOOKUP($B63,'Conv Tables'!$B$6:$G$32,3,FALSE)+D39,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E63" s="31" t="e">
+      <c r="E63" s="29" t="e">
         <f>ROUND(-VLOOKUP($B63,'Conv Tables'!$B$6:$G$32,4,FALSE)+E39,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F63" s="31" t="e">
+      <c r="F63" s="29" t="e">
         <f>ROUND(-VLOOKUP($B63,'Conv Tables'!B19:H39,5,FALSE)+F39,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G63" s="31" t="e">
+      <c r="G63" s="29" t="e">
         <f>ROUND(-VLOOKUP($B63,'Conv Tables'!B19:H44,6,FALSE)+G39,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H63" s="31" t="e">
+      <c r="H63" s="29" t="e">
         <f>ROUND(-VLOOKUP($B63,'Conv Tables'!B19:H44,7,FALSE)+H39,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I63" s="20"/>
+      <c r="I63" s="18"/>
     </row>
     <row r="64" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="30">
+      <c r="A64" s="28">
         <f>'Data Entry'!A40</f>
         <v>14</v>
       </c>
-      <c r="B64" s="30">
+      <c r="B64" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C64" s="31" t="e">
+      <c r="C64" s="29" t="e">
         <f>ROUND(-VLOOKUP($B64,'Conv Tables'!$B$6:$G$32,2,FALSE)+C40,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D64" s="31" t="e">
+      <c r="D64" s="29" t="e">
         <f>ROUND(-VLOOKUP($B64,'Conv Tables'!$B$6:$G$32,3,FALSE)+D40,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E64" s="31" t="e">
+      <c r="E64" s="29" t="e">
         <f>ROUND(-VLOOKUP($B64,'Conv Tables'!$B$6:$G$32,4,FALSE)+E40,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F64" s="31" t="e">
+      <c r="F64" s="29" t="e">
         <f>ROUND(-VLOOKUP($B64,'Conv Tables'!B20:H40,5,FALSE)+F40,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G64" s="31" t="e">
+      <c r="G64" s="29" t="e">
         <f>ROUND(-VLOOKUP($B64,'Conv Tables'!B20:H45,6,FALSE)+G40,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H64" s="31" t="e">
+      <c r="H64" s="29" t="e">
         <f>ROUND(-VLOOKUP($B64,'Conv Tables'!B20:H45,7,FALSE)+H40,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I64" s="20"/>
+      <c r="I64" s="18"/>
     </row>
     <row r="65" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="30">
+      <c r="A65" s="28">
         <f>'Data Entry'!A41</f>
         <v>15</v>
       </c>
-      <c r="B65" s="30">
+      <c r="B65" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C65" s="31" t="e">
+      <c r="C65" s="29" t="e">
         <f>ROUND(-VLOOKUP($B65,'Conv Tables'!$B$6:$G$32,2,FALSE)+C41,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D65" s="31" t="e">
+      <c r="D65" s="29" t="e">
         <f>ROUND(-VLOOKUP($B65,'Conv Tables'!$B$6:$G$32,3,FALSE)+D41,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E65" s="31" t="e">
+      <c r="E65" s="29" t="e">
         <f>ROUND(-VLOOKUP($B65,'Conv Tables'!$B$6:$G$32,4,FALSE)+E41,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F65" s="31" t="e">
+      <c r="F65" s="29" t="e">
         <f>ROUND(-VLOOKUP($B65,'Conv Tables'!B21:H41,5,FALSE)+F41,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G65" s="31" t="e">
+      <c r="G65" s="29" t="e">
         <f>ROUND(-VLOOKUP($B65,'Conv Tables'!B21:H46,6,FALSE)+G41,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H65" s="31" t="e">
+      <c r="H65" s="29" t="e">
         <f>ROUND(-VLOOKUP($B65,'Conv Tables'!B21:H46,7,FALSE)+H41,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I65" s="20"/>
+      <c r="I65" s="18"/>
     </row>
     <row r="66" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="30">
+      <c r="A66" s="28">
         <f>'Data Entry'!A42</f>
         <v>16</v>
       </c>
-      <c r="B66" s="30">
+      <c r="B66" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C66" s="31" t="e">
+      <c r="C66" s="29" t="e">
         <f>ROUND(-VLOOKUP($B66,'Conv Tables'!$B$6:$G$32,2,FALSE)+C42,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D66" s="31" t="e">
+      <c r="D66" s="29" t="e">
         <f>ROUND(-VLOOKUP($B66,'Conv Tables'!$B$6:$G$32,3,FALSE)+D42,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E66" s="31" t="e">
+      <c r="E66" s="29" t="e">
         <f>ROUND(-VLOOKUP($B66,'Conv Tables'!$B$6:$G$32,4,FALSE)+E42,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F66" s="31" t="e">
+      <c r="F66" s="29" t="e">
         <f>ROUND(-VLOOKUP($B66,'Conv Tables'!B22:H42,5,FALSE)+F42,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G66" s="31" t="e">
+      <c r="G66" s="29" t="e">
         <f>ROUND(-VLOOKUP($B66,'Conv Tables'!B22:H47,6,FALSE)+G42,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H66" s="31" t="e">
+      <c r="H66" s="29" t="e">
         <f>ROUND(-VLOOKUP($B66,'Conv Tables'!B22:H47,7,FALSE)+H42,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I66" s="20"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="30">
+      <c r="A67" s="28">
         <f>'Data Entry'!A43</f>
         <v>17</v>
       </c>
-      <c r="B67" s="30">
+      <c r="B67" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C67" s="31" t="e">
+      <c r="C67" s="29" t="e">
         <f>ROUND(-VLOOKUP($B67,'Conv Tables'!$B$6:$G$32,2,FALSE)+C43,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D67" s="31" t="e">
+      <c r="D67" s="29" t="e">
         <f>ROUND(-VLOOKUP($B67,'Conv Tables'!$B$6:$G$32,3,FALSE)+D43,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E67" s="31" t="e">
+      <c r="E67" s="29" t="e">
         <f>ROUND(-VLOOKUP($B67,'Conv Tables'!$B$6:$G$32,4,FALSE)+E43,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F67" s="31" t="e">
+      <c r="F67" s="29" t="e">
         <f>ROUND(-VLOOKUP($B67,'Conv Tables'!B23:H43,5,FALSE)+F43,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G67" s="31" t="e">
+      <c r="G67" s="29" t="e">
         <f>ROUND(-VLOOKUP($B67,'Conv Tables'!B23:H48,6,FALSE)+G43,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H67" s="31" t="e">
+      <c r="H67" s="29" t="e">
         <f>ROUND(-VLOOKUP($B67,'Conv Tables'!B23:H48,7,FALSE)+H43,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I67" s="20"/>
+      <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="30">
+      <c r="A68" s="28">
         <f>'Data Entry'!A44</f>
         <v>18</v>
       </c>
-      <c r="B68" s="30">
+      <c r="B68" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C68" s="31" t="e">
+      <c r="C68" s="29" t="e">
         <f>ROUND(-VLOOKUP($B68,'Conv Tables'!$B$6:$G$32,2,FALSE)+C44,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D68" s="31" t="e">
+      <c r="D68" s="29" t="e">
         <f>ROUND(-VLOOKUP($B68,'Conv Tables'!$B$6:$G$32,3,FALSE)+D44,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E68" s="31" t="e">
+      <c r="E68" s="29" t="e">
         <f>ROUND(-VLOOKUP($B68,'Conv Tables'!$B$6:$G$32,4,FALSE)+E44,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F68" s="31" t="e">
+      <c r="F68" s="29" t="e">
         <f>ROUND(-VLOOKUP($B68,'Conv Tables'!B24:H44,5,FALSE)+F44,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G68" s="31" t="e">
+      <c r="G68" s="29" t="e">
         <f>ROUND(-VLOOKUP($B68,'Conv Tables'!B24:H49,6,FALSE)+G44,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H68" s="31" t="e">
+      <c r="H68" s="29" t="e">
         <f>ROUND(-VLOOKUP($B68,'Conv Tables'!B24:H49,7,FALSE)+H44,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I68" s="20"/>
+      <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="30">
+      <c r="A69" s="28">
         <f>'Data Entry'!A45</f>
         <v>19</v>
       </c>
-      <c r="B69" s="30">
+      <c r="B69" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C69" s="31" t="e">
+      <c r="C69" s="29" t="e">
         <f>ROUND(-VLOOKUP($B69,'Conv Tables'!$B$6:$G$32,2,FALSE)+C45,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D69" s="31" t="e">
+      <c r="D69" s="29" t="e">
         <f>ROUND(-VLOOKUP($B69,'Conv Tables'!$B$6:$G$32,3,FALSE)+D45,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E69" s="31" t="e">
+      <c r="E69" s="29" t="e">
         <f>ROUND(-VLOOKUP($B69,'Conv Tables'!$B$6:$G$32,4,FALSE)+E45,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F69" s="31" t="e">
+      <c r="F69" s="29" t="e">
         <f>ROUND(-VLOOKUP($B69,'Conv Tables'!B25:H45,5,FALSE)+F45,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G69" s="31" t="e">
+      <c r="G69" s="29" t="e">
         <f>ROUND(-VLOOKUP($B69,'Conv Tables'!B25:H50,6,FALSE)+G45,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H69" s="31" t="e">
+      <c r="H69" s="29" t="e">
         <f>ROUND(-VLOOKUP($B69,'Conv Tables'!B25:H50,7,FALSE)+H45,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I69" s="20"/>
+      <c r="I69" s="18"/>
     </row>
     <row r="70" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="30">
+      <c r="A70" s="28">
         <f>'Data Entry'!A46</f>
         <v>20</v>
       </c>
-      <c r="B70" s="30">
+      <c r="B70" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C70" s="31" t="e">
+      <c r="C70" s="29" t="e">
         <f>ROUND(-VLOOKUP($B70,'Conv Tables'!$B$6:$G$32,2,FALSE)+C46,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D70" s="31" t="e">
+      <c r="D70" s="29" t="e">
         <f>ROUND(-VLOOKUP($B70,'Conv Tables'!$B$6:$G$32,3,FALSE)+D46,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E70" s="31" t="e">
+      <c r="E70" s="29" t="e">
         <f>ROUND(-VLOOKUP($B70,'Conv Tables'!$B$6:$G$32,4,FALSE)+E46,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F70" s="31" t="e">
+      <c r="F70" s="29" t="e">
         <f>ROUND(-VLOOKUP($B70,'Conv Tables'!B26:H46,5,FALSE)+F46,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G70" s="31" t="e">
+      <c r="G70" s="29" t="e">
         <f>ROUND(-VLOOKUP($B70,'Conv Tables'!B26:H51,6,FALSE)+G46,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H70" s="31" t="e">
+      <c r="H70" s="29" t="e">
         <f>ROUND(-VLOOKUP($B70,'Conv Tables'!B26:H51,7,FALSE)+H46,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I70" s="20"/>
+      <c r="I70" s="18"/>
     </row>
     <row r="71" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="30">
+      <c r="A71" s="28">
         <f>'Data Entry'!A47</f>
         <v>21</v>
       </c>
-      <c r="B71" s="30">
+      <c r="B71" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C71" s="31" t="e">
+      <c r="C71" s="29" t="e">
         <f>ROUND(-VLOOKUP($B71,'Conv Tables'!$B$6:$G$32,2,FALSE)+C47,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D71" s="31" t="e">
+      <c r="D71" s="29" t="e">
         <f>ROUND(-VLOOKUP($B71,'Conv Tables'!$B$6:$G$32,3,FALSE)+D47,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="E71" s="31" t="e">
+      <c r="E71" s="29" t="e">
         <f>ROUND(-VLOOKUP($B71,'Conv Tables'!$B$6:$G$32,4,FALSE)+E47,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F71" s="31" t="e">
+      <c r="F71" s="29" t="e">
         <f>ROUND(-VLOOKUP($B71,'Conv Tables'!B27:H47,5,FALSE)+F47,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="G71" s="31" t="e">
+      <c r="G71" s="29" t="e">
         <f>ROUND(-VLOOKUP($B71,'Conv Tables'!B27:H52,6,FALSE)+G47,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H71" s="31" t="e">
+      <c r="H71" s="29" t="e">
         <f>ROUND(-VLOOKUP($B71,'Conv Tables'!B27:H52,7,FALSE)+H47,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="I71" s="20"/>
+      <c r="I71" s="18"/>
     </row>
     <row r="72" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
     </row>
     <row r="73" spans="1:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="76" t="s">
+      <c r="A73" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="24"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="65" t="s">
+      <c r="C76" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="66"/>
-      <c r="E76" s="64" t="s">
+      <c r="D76" s="64"/>
+      <c r="E76" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
     </row>
     <row r="77" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="59">
+      <c r="C77" s="57">
         <v>45799</v>
       </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="61" t="s">
+      <c r="D77" s="58"/>
+      <c r="E77" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="63"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="61"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C78" s="49">
+      <c r="C78" s="47">
         <v>45688</v>
       </c>
-      <c r="D78" s="50"/>
-      <c r="E78" s="51" t="s">
+      <c r="D78" s="48"/>
+      <c r="E78" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="53"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="51"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C79" s="49">
+      <c r="C79" s="47">
         <v>45593</v>
       </c>
-      <c r="D79" s="50"/>
-      <c r="E79" s="51" t="s">
+      <c r="D79" s="48"/>
+      <c r="E79" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="53"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="51"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="49">
+      <c r="C80" s="47">
         <v>45582</v>
       </c>
-      <c r="D80" s="50"/>
-      <c r="E80" s="51" t="s">
+      <c r="D80" s="48"/>
+      <c r="E80" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="53"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="51"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="49">
+      <c r="C81" s="47">
         <v>45379</v>
       </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="51" t="s">
+      <c r="D81" s="48"/>
+      <c r="E81" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="53"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="51"/>
     </row>
     <row r="82" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C82" s="49">
+      <c r="C82" s="47">
         <v>45365</v>
       </c>
-      <c r="D82" s="50"/>
-      <c r="E82" s="61" t="s">
+      <c r="D82" s="48"/>
+      <c r="E82" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="63"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="61"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="44" t="s">
+      <c r="A83" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="59">
+      <c r="C83" s="57">
         <v>45260</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61" t="s">
+      <c r="D83" s="58"/>
+      <c r="E83" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="63"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="61"/>
     </row>
     <row r="84" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="46" t="s">
+      <c r="A84" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="57">
+      <c r="C84" s="55">
         <v>45131</v>
       </c>
-      <c r="D84" s="58"/>
-      <c r="E84" s="54" t="s">
+      <c r="D84" s="56"/>
+      <c r="E84" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="56"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="111">
